--- a/Data/easy_trial_seperate_schemes/_post_visit_spørgeskemaer.mITT.data .xlsx
+++ b/Data/easy_trial_seperate_schemes/_post_visit_spørgeskemaer.mITT.data .xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:DC35"/>
+  <dimension ref="A1:DC36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -7420,7 +7420,7 @@
     </row>
     <row r="23">
       <c r="A23">
-        <v>213031</v>
+        <v>213019</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -7434,12 +7434,12 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Arb Liste 192</t>
+          <t>Arb Liste 167</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>LUP055</t>
+          <t>LUP054</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -7454,14 +7454,14 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Spørgeskema 1 måned efter deltagelse</t>
+          <t>Spørgeskema 3 måneder efter deltagelse</t>
         </is>
       </c>
       <c r="I23" s="2">
-        <v>45426</v>
+        <v>45516</v>
       </c>
       <c r="J23" s="2">
-        <v>45486</v>
+        <v>45576</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -7475,130 +7475,135 @@
         <v>4264</v>
       </c>
       <c r="N23">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P23">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R23">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="T23">
+        <v>3</v>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="V23">
+        <v>3</v>
+      </c>
+      <c r="W23">
+        <v>2</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23">
+        <v>2</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+      <c r="AA23">
+        <v>2</v>
+      </c>
+      <c r="AB23">
+        <v>0</v>
+      </c>
+      <c r="AC23">
+        <v>2</v>
+      </c>
+      <c r="AD23" t="inlineStr">
+        <is>
+          <t>Ryggen</t>
+        </is>
+      </c>
+      <c r="AE23">
+        <v>1</v>
+      </c>
+      <c r="AF23">
+        <v>1</v>
+      </c>
+      <c r="AG23">
+        <v>0</v>
+      </c>
+      <c r="AH23">
+        <v>0</v>
+      </c>
+      <c r="AI23">
+        <v>1</v>
+      </c>
+      <c r="AJ23">
+        <v>0</v>
+      </c>
+      <c r="AK23">
+        <v>1</v>
+      </c>
+      <c r="AL23">
+        <v>0</v>
+      </c>
+      <c r="AM23">
+        <v>0</v>
+      </c>
+      <c r="AN23">
+        <v>0</v>
+      </c>
+      <c r="AO23">
+        <v>0</v>
+      </c>
+      <c r="AP23">
+        <v>1</v>
+      </c>
+      <c r="AQ23">
+        <v>0</v>
+      </c>
+      <c r="AR23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AS23">
+        <v>3</v>
+      </c>
+      <c r="AT23" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AU23">
+        <v>2</v>
+      </c>
+      <c r="AV23">
+        <v>1</v>
+      </c>
+      <c r="AW23">
+        <v>4</v>
+      </c>
+      <c r="AX23" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="T23">
-        <v>3</v>
-      </c>
-      <c r="U23" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="V23">
-        <v>2</v>
-      </c>
-      <c r="W23">
-        <v>1</v>
-      </c>
-      <c r="X23">
-        <v>0</v>
-      </c>
-      <c r="Y23">
-        <v>1</v>
-      </c>
-      <c r="Z23">
-        <v>0</v>
-      </c>
-      <c r="AA23">
-        <v>0</v>
-      </c>
-      <c r="AB23">
-        <v>1</v>
-      </c>
-      <c r="AC23">
-        <v>0</v>
-      </c>
-      <c r="AE23">
-        <v>0</v>
-      </c>
-      <c r="AF23">
-        <v>1</v>
-      </c>
-      <c r="AG23">
-        <v>0</v>
-      </c>
-      <c r="AH23">
-        <v>0</v>
-      </c>
-      <c r="AI23">
-        <v>0</v>
-      </c>
-      <c r="AJ23">
-        <v>0</v>
-      </c>
-      <c r="AK23">
-        <v>0</v>
-      </c>
-      <c r="AL23">
-        <v>0</v>
-      </c>
-      <c r="AM23">
-        <v>0</v>
-      </c>
-      <c r="AN23">
-        <v>0</v>
-      </c>
-      <c r="AO23">
-        <v>0</v>
-      </c>
-      <c r="AP23">
-        <v>0</v>
-      </c>
-      <c r="AQ23">
-        <v>0</v>
-      </c>
-      <c r="AR23" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AS23">
-        <v>0</v>
-      </c>
-      <c r="AT23" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AU23">
-        <v>0</v>
-      </c>
-      <c r="AV23">
-        <v>0</v>
-      </c>
-      <c r="AW23">
-        <v>2</v>
-      </c>
-      <c r="AX23" t="inlineStr">
+      <c r="AY23" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AY23" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
       <c r="AZ23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BA23">
         <v>3</v>
@@ -7607,16 +7612,16 @@
         <v>3</v>
       </c>
       <c r="BC23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BD23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BE23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BF23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BG23">
         <v>3</v>
@@ -7628,41 +7633,41 @@
         <v>3</v>
       </c>
       <c r="BJ23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BK23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BL23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BM23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BN23">
         <v>2</v>
       </c>
       <c r="BO23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BP23">
         <v>2</v>
       </c>
       <c r="BQ23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BR23" t="inlineStr">
         <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="BS23" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="BS23" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="BT23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BU23">
         <v>4</v>
@@ -7671,13 +7676,13 @@
         <v>6</v>
       </c>
       <c r="BW23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BX23">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BY23">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BZ23">
         <v>5</v>
@@ -7686,32 +7691,32 @@
         <v>2</v>
       </c>
       <c r="CB23">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="CC23">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CD23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CE23">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="CF23">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="CG23">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="CH23">
-        <v>1517</v>
+        <v>1518</v>
       </c>
       <c r="CI23">
-        <v>8.6</v>
+        <v>5.6</v>
       </c>
       <c r="CJ23" t="inlineStr">
         <is>
-          <t>lup_055</t>
+          <t>lup_054</t>
         </is>
       </c>
       <c r="CK23">
@@ -7726,52 +7731,52 @@
         </is>
       </c>
       <c r="CN23">
-        <v>1.057995591204785</v>
+        <v>2.293879180598523</v>
       </c>
       <c r="CO23">
-        <v>0.631472179378184</v>
+        <v>0.9661398535214949</v>
       </c>
       <c r="CP23">
-        <v>0.2264179169762452</v>
+        <v>0.625193798901879</v>
       </c>
       <c r="CQ23">
-        <v>0.9633250066981153</v>
+        <v>29.40871087617351</v>
       </c>
       <c r="CR23">
-        <v>0.5021841800460352</v>
+        <v>0.837726975296465</v>
       </c>
       <c r="CS23">
-        <v>0.588839194940014</v>
+        <v>2.178751489084844</v>
       </c>
       <c r="CT23">
-        <v>0.03290478520216784</v>
+        <v>0.527213999239972</v>
       </c>
       <c r="CU23">
-        <v>0.0294080144752244</v>
+        <v>0.8226540879328939</v>
       </c>
       <c r="CV23">
-        <v>688.4782678086534</v>
+        <v>1064.132220351503</v>
       </c>
       <c r="CW23">
-        <v>758.6743040084156</v>
+        <v>907.032527596619</v>
       </c>
       <c r="CX23">
-        <v>1111.648572496126</v>
+        <v>1464.719446352288</v>
       </c>
       <c r="CY23">
-        <v>453.6581438365121</v>
+        <v>1095.727261150818</v>
       </c>
       <c r="CZ23">
-        <v>598.2678080913053</v>
+        <v>703.5668449794081</v>
       </c>
       <c r="DA23">
-        <v>8589.260613124121</v>
+        <v>17281.76823724833</v>
       </c>
       <c r="DB23">
-        <v>248.2176720464151</v>
+        <v>345.3579051373666</v>
       </c>
       <c r="DC23">
-        <v>148.5164446411826</v>
+        <v>245.9794763693379</v>
       </c>
     </row>
     <row r="24">
@@ -7810,14 +7815,14 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Spørgeskema 2 måneder efter deltagelse</t>
+          <t>Spørgeskema 1 måned efter deltagelse</t>
         </is>
       </c>
       <c r="I24" s="2">
+        <v>45426</v>
+      </c>
+      <c r="J24" s="2">
         <v>45486</v>
-      </c>
-      <c r="J24" s="2">
-        <v>45516</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -7855,179 +7860,179 @@
       </c>
       <c r="U24" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="V24">
+        <v>2</v>
+      </c>
+      <c r="W24">
+        <v>1</v>
+      </c>
+      <c r="X24">
+        <v>0</v>
+      </c>
+      <c r="Y24">
+        <v>1</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+      <c r="AA24">
+        <v>0</v>
+      </c>
+      <c r="AB24">
+        <v>1</v>
+      </c>
+      <c r="AC24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>0</v>
+      </c>
+      <c r="AF24">
+        <v>1</v>
+      </c>
+      <c r="AG24">
+        <v>0</v>
+      </c>
+      <c r="AH24">
+        <v>0</v>
+      </c>
+      <c r="AI24">
+        <v>0</v>
+      </c>
+      <c r="AJ24">
+        <v>0</v>
+      </c>
+      <c r="AK24">
+        <v>0</v>
+      </c>
+      <c r="AL24">
+        <v>0</v>
+      </c>
+      <c r="AM24">
+        <v>0</v>
+      </c>
+      <c r="AN24">
+        <v>0</v>
+      </c>
+      <c r="AO24">
+        <v>0</v>
+      </c>
+      <c r="AP24">
+        <v>0</v>
+      </c>
+      <c r="AQ24">
+        <v>0</v>
+      </c>
+      <c r="AR24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AS24">
+        <v>0</v>
+      </c>
+      <c r="AT24" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AU24">
+        <v>0</v>
+      </c>
+      <c r="AV24">
+        <v>0</v>
+      </c>
+      <c r="AW24">
+        <v>2</v>
+      </c>
+      <c r="AX24" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="V24">
-        <v>2</v>
-      </c>
-      <c r="W24">
-        <v>1</v>
-      </c>
-      <c r="X24">
-        <v>0</v>
-      </c>
-      <c r="Y24">
-        <v>1</v>
-      </c>
-      <c r="Z24">
-        <v>0</v>
-      </c>
-      <c r="AA24">
-        <v>0</v>
-      </c>
-      <c r="AB24">
-        <v>0</v>
-      </c>
-      <c r="AC24">
-        <v>0</v>
-      </c>
-      <c r="AE24">
-        <v>0</v>
-      </c>
-      <c r="AF24">
-        <v>0</v>
-      </c>
-      <c r="AG24">
-        <v>0</v>
-      </c>
-      <c r="AH24">
-        <v>0</v>
-      </c>
-      <c r="AI24">
-        <v>0</v>
-      </c>
-      <c r="AJ24">
-        <v>0</v>
-      </c>
-      <c r="AK24">
-        <v>0</v>
-      </c>
-      <c r="AL24">
-        <v>0</v>
-      </c>
-      <c r="AM24">
-        <v>0</v>
-      </c>
-      <c r="AN24">
-        <v>0</v>
-      </c>
-      <c r="AO24">
-        <v>0</v>
-      </c>
-      <c r="AP24">
-        <v>0</v>
-      </c>
-      <c r="AQ24">
-        <v>0</v>
-      </c>
-      <c r="AR24" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AS24">
-        <v>0</v>
-      </c>
-      <c r="AT24" t="inlineStr">
+      <c r="AY24" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AZ24">
+        <v>3</v>
+      </c>
+      <c r="BA24">
+        <v>3</v>
+      </c>
+      <c r="BB24">
+        <v>3</v>
+      </c>
+      <c r="BC24">
+        <v>3</v>
+      </c>
+      <c r="BD24">
+        <v>3</v>
+      </c>
+      <c r="BE24">
+        <v>3</v>
+      </c>
+      <c r="BF24">
+        <v>3</v>
+      </c>
+      <c r="BG24">
+        <v>3</v>
+      </c>
+      <c r="BH24">
+        <v>3</v>
+      </c>
+      <c r="BI24">
+        <v>3</v>
+      </c>
+      <c r="BJ24">
+        <v>2</v>
+      </c>
+      <c r="BK24">
+        <v>2</v>
+      </c>
+      <c r="BL24">
+        <v>2</v>
+      </c>
+      <c r="BM24">
+        <v>2</v>
+      </c>
+      <c r="BN24">
+        <v>2</v>
+      </c>
+      <c r="BO24">
+        <v>2</v>
+      </c>
+      <c r="BP24">
+        <v>2</v>
+      </c>
+      <c r="BQ24">
+        <v>2</v>
+      </c>
+      <c r="BR24" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="BS24" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="AU24">
-        <v>1</v>
-      </c>
-      <c r="AV24">
-        <v>0</v>
-      </c>
-      <c r="AW24">
-        <v>4</v>
-      </c>
-      <c r="AX24" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AY24" t="inlineStr">
-        <is>
-          <t>3	4</t>
-        </is>
-      </c>
-      <c r="AZ24">
-        <v>3</v>
-      </c>
-      <c r="BA24">
-        <v>3</v>
-      </c>
-      <c r="BB24">
-        <v>3</v>
-      </c>
-      <c r="BC24">
-        <v>3</v>
-      </c>
-      <c r="BD24">
-        <v>3</v>
-      </c>
-      <c r="BE24">
-        <v>2</v>
-      </c>
-      <c r="BF24">
-        <v>3</v>
-      </c>
-      <c r="BG24">
-        <v>3</v>
-      </c>
-      <c r="BH24">
-        <v>3</v>
-      </c>
-      <c r="BI24">
-        <v>3</v>
-      </c>
-      <c r="BJ24">
-        <v>2</v>
-      </c>
-      <c r="BK24">
-        <v>1</v>
-      </c>
-      <c r="BL24">
-        <v>2</v>
-      </c>
-      <c r="BM24">
-        <v>2</v>
-      </c>
-      <c r="BN24">
-        <v>2</v>
-      </c>
-      <c r="BO24">
-        <v>2</v>
-      </c>
-      <c r="BP24">
-        <v>2</v>
-      </c>
-      <c r="BQ24">
-        <v>1</v>
-      </c>
-      <c r="BR24" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="BS24" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="BT24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BU24">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BV24">
         <v>6</v>
       </c>
       <c r="BW24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BX24">
         <v>3</v>
@@ -8042,13 +8047,13 @@
         <v>2</v>
       </c>
       <c r="CB24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CC24">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CD24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CE24">
         <v>2</v>
@@ -8060,10 +8065,10 @@
         <v>2</v>
       </c>
       <c r="CH24">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="CI24">
-        <v>4</v>
+        <v>8.6</v>
       </c>
       <c r="CJ24" t="inlineStr">
         <is>
@@ -8166,14 +8171,14 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Spørgeskema 3 måneder efter deltagelse</t>
+          <t>Spørgeskema 2 måneder efter deltagelse</t>
         </is>
       </c>
       <c r="I25" s="2">
+        <v>45486</v>
+      </c>
+      <c r="J25" s="2">
         <v>45516</v>
-      </c>
-      <c r="J25" s="2">
-        <v>45576</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -8190,32 +8195,32 @@
         <v>6</v>
       </c>
       <c r="O25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="T25">
+        <v>3</v>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="T25">
-        <v>3</v>
-      </c>
-      <c r="U25" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
       <c r="V25">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="W25">
         <v>1</v>
@@ -8242,7 +8247,7 @@
         <v>0</v>
       </c>
       <c r="AF25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG25">
         <v>0</v>
@@ -8297,7 +8302,7 @@
         <v>0</v>
       </c>
       <c r="AW25">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX25" t="inlineStr">
         <is>
@@ -8343,7 +8348,7 @@
         <v>2</v>
       </c>
       <c r="BK25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BL25">
         <v>2</v>
@@ -8374,7 +8379,7 @@
         </is>
       </c>
       <c r="BT25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BU25">
         <v>6</v>
@@ -8386,19 +8391,19 @@
         <v>2</v>
       </c>
       <c r="BX25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BY25">
         <v>5</v>
       </c>
       <c r="BZ25">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CA25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CB25">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="CC25">
         <v>5</v>
@@ -8416,10 +8421,10 @@
         <v>2</v>
       </c>
       <c r="CH25">
-        <v>1518</v>
+        <v>1519</v>
       </c>
       <c r="CI25">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="CJ25" t="inlineStr">
         <is>
@@ -8488,7 +8493,7 @@
     </row>
     <row r="26">
       <c r="A26">
-        <v>212335</v>
+        <v>213031</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -8502,12 +8507,12 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>Arb Liste 192</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>LUP014</t>
+          <t>LUP055</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -8522,14 +8527,14 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Spørgeskema 1 måned efter deltagelse</t>
+          <t>Spørgeskema 3 måneder efter deltagelse</t>
         </is>
       </c>
       <c r="I26" s="2">
-        <v>45312</v>
+        <v>45516</v>
       </c>
       <c r="J26" s="2">
-        <v>45372</v>
+        <v>45576</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -8546,42 +8551,240 @@
         <v>6</v>
       </c>
       <c r="O26">
+        <v>3</v>
+      </c>
+      <c r="P26">
+        <v>3</v>
+      </c>
+      <c r="Q26">
+        <v>2</v>
+      </c>
+      <c r="R26">
+        <v>3</v>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="T26">
+        <v>3</v>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="V26">
+        <v>4</v>
+      </c>
+      <c r="W26">
+        <v>1</v>
+      </c>
+      <c r="X26">
+        <v>0</v>
+      </c>
+      <c r="Y26">
+        <v>1</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+      <c r="AA26">
+        <v>0</v>
+      </c>
+      <c r="AB26">
+        <v>0</v>
+      </c>
+      <c r="AC26">
+        <v>0</v>
+      </c>
+      <c r="AE26">
+        <v>0</v>
+      </c>
+      <c r="AF26">
+        <v>1</v>
+      </c>
+      <c r="AG26">
+        <v>0</v>
+      </c>
+      <c r="AH26">
+        <v>0</v>
+      </c>
+      <c r="AI26">
+        <v>0</v>
+      </c>
+      <c r="AJ26">
+        <v>0</v>
+      </c>
+      <c r="AK26">
+        <v>0</v>
+      </c>
+      <c r="AL26">
+        <v>0</v>
+      </c>
+      <c r="AM26">
+        <v>0</v>
+      </c>
+      <c r="AN26">
+        <v>0</v>
+      </c>
+      <c r="AO26">
+        <v>0</v>
+      </c>
+      <c r="AP26">
+        <v>0</v>
+      </c>
+      <c r="AQ26">
+        <v>0</v>
+      </c>
+      <c r="AR26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AS26">
+        <v>0</v>
+      </c>
+      <c r="AT26" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AU26">
+        <v>1</v>
+      </c>
+      <c r="AV26">
+        <v>0</v>
+      </c>
+      <c r="AW26">
+        <v>3</v>
+      </c>
+      <c r="AX26" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AY26" t="inlineStr">
+        <is>
+          <t>3	4</t>
+        </is>
+      </c>
+      <c r="AZ26">
+        <v>3</v>
+      </c>
+      <c r="BA26">
+        <v>3</v>
+      </c>
+      <c r="BB26">
+        <v>3</v>
+      </c>
+      <c r="BC26">
+        <v>3</v>
+      </c>
+      <c r="BD26">
+        <v>3</v>
+      </c>
+      <c r="BE26">
+        <v>2</v>
+      </c>
+      <c r="BF26">
+        <v>3</v>
+      </c>
+      <c r="BG26">
+        <v>3</v>
+      </c>
+      <c r="BH26">
+        <v>3</v>
+      </c>
+      <c r="BI26">
+        <v>3</v>
+      </c>
+      <c r="BJ26">
+        <v>2</v>
+      </c>
+      <c r="BK26">
+        <v>2</v>
+      </c>
+      <c r="BL26">
+        <v>2</v>
+      </c>
+      <c r="BM26">
+        <v>2</v>
+      </c>
+      <c r="BN26">
+        <v>2</v>
+      </c>
+      <c r="BO26">
+        <v>2</v>
+      </c>
+      <c r="BP26">
+        <v>2</v>
+      </c>
+      <c r="BQ26">
+        <v>1</v>
+      </c>
+      <c r="BR26" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="BS26" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BT26">
+        <v>2</v>
+      </c>
+      <c r="BU26">
         <v>6</v>
       </c>
-      <c r="P26">
+      <c r="BV26">
         <v>6</v>
       </c>
-      <c r="Q26">
+      <c r="BW26">
+        <v>2</v>
+      </c>
+      <c r="BX26">
+        <v>2</v>
+      </c>
+      <c r="BY26">
+        <v>5</v>
+      </c>
+      <c r="BZ26">
+        <v>4</v>
+      </c>
+      <c r="CA26">
+        <v>1</v>
+      </c>
+      <c r="CB26">
+        <v>4</v>
+      </c>
+      <c r="CC26">
+        <v>5</v>
+      </c>
+      <c r="CD26">
+        <v>2</v>
+      </c>
+      <c r="CE26">
+        <v>2</v>
+      </c>
+      <c r="CF26">
+        <v>4</v>
+      </c>
+      <c r="CG26">
+        <v>2</v>
+      </c>
+      <c r="CH26">
+        <v>1518</v>
+      </c>
+      <c r="CI26">
         <v>6</v>
       </c>
-      <c r="R26">
-        <v>6</v>
-      </c>
-      <c r="S26" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="T26">
-        <v>6</v>
-      </c>
-      <c r="U26" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="V26">
-        <v>6</v>
-      </c>
-      <c r="CH26">
-        <v>1517</v>
-      </c>
-      <c r="CI26">
-        <v>7.6</v>
-      </c>
       <c r="CJ26" t="inlineStr">
         <is>
-          <t>lup_014</t>
+          <t>lup_055</t>
         </is>
       </c>
       <c r="CK26">
@@ -8596,52 +8799,52 @@
         </is>
       </c>
       <c r="CN26">
-        <v>-0.01800923352507124</v>
+        <v>1.057995591204785</v>
       </c>
       <c r="CO26">
-        <v>0.04745966591604113</v>
+        <v>0.631472179378184</v>
       </c>
       <c r="CP26">
-        <v>0.06116857509351407</v>
+        <v>0.2264179169762452</v>
       </c>
       <c r="CQ26">
-        <v>0.0008082664082571031</v>
+        <v>0.9633250066981153</v>
       </c>
       <c r="CR26">
-        <v>0.09717642096226413</v>
+        <v>0.5021841800460352</v>
       </c>
       <c r="CS26">
-        <v>0.9522707856278587</v>
+        <v>0.588839194940014</v>
       </c>
       <c r="CT26">
-        <v>0.2235431141649703</v>
+        <v>0.03290478520216784</v>
       </c>
       <c r="CU26">
-        <v>0.5021435494326213</v>
+        <v>0.0294080144752244</v>
       </c>
       <c r="CV26">
-        <v>325.3783125221683</v>
+        <v>688.4782678086534</v>
       </c>
       <c r="CW26">
-        <v>500.893157180158</v>
+        <v>758.6743040084156</v>
       </c>
       <c r="CX26">
-        <v>961.330111498923</v>
+        <v>1111.648572496126</v>
       </c>
       <c r="CY26">
-        <v>242.6176188504557</v>
+        <v>453.6581438365121</v>
       </c>
       <c r="CZ26">
-        <v>441.3178636353562</v>
+        <v>598.2678080913053</v>
       </c>
       <c r="DA26">
-        <v>10059.79881636455</v>
+        <v>8589.260613124121</v>
       </c>
       <c r="DB26">
-        <v>285.0292095879738</v>
+        <v>248.2176720464151</v>
       </c>
       <c r="DC26">
-        <v>198.5512786569955</v>
+        <v>148.5164446411826</v>
       </c>
     </row>
     <row r="27">
@@ -8680,14 +8883,14 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Spørgeskema 2 måneder efter deltagelse</t>
+          <t>Spørgeskema 1 måned efter deltagelse</t>
         </is>
       </c>
       <c r="I27" s="2">
+        <v>45312</v>
+      </c>
+      <c r="J27" s="2">
         <v>45372</v>
-      </c>
-      <c r="J27" s="2">
-        <v>45402</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -8701,244 +8904,41 @@
         <v>4264</v>
       </c>
       <c r="N27">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O27">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P27">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q27">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R27">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
       <c r="T27">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
       <c r="V27">
-        <v>7</v>
-      </c>
-      <c r="W27">
-        <v>1</v>
-      </c>
-      <c r="X27">
-        <v>0</v>
-      </c>
-      <c r="Y27">
-        <v>3</v>
-      </c>
-      <c r="Z27">
-        <v>0</v>
-      </c>
-      <c r="AA27">
-        <v>1</v>
-      </c>
-      <c r="AB27">
-        <v>1</v>
-      </c>
-      <c r="AC27">
-        <v>2</v>
-      </c>
-      <c r="AD27" t="inlineStr">
-        <is>
-          <t>Hals og bryst</t>
-        </is>
-      </c>
-      <c r="AE27">
-        <v>0</v>
-      </c>
-      <c r="AF27">
-        <v>1</v>
-      </c>
-      <c r="AG27">
-        <v>0</v>
-      </c>
-      <c r="AH27">
-        <v>0</v>
-      </c>
-      <c r="AI27">
-        <v>2</v>
-      </c>
-      <c r="AJ27">
-        <v>0</v>
-      </c>
-      <c r="AK27">
-        <v>1</v>
-      </c>
-      <c r="AL27">
-        <v>3</v>
-      </c>
-      <c r="AM27">
-        <v>0</v>
-      </c>
-      <c r="AN27">
-        <v>0</v>
-      </c>
-      <c r="AO27">
-        <v>0</v>
-      </c>
-      <c r="AP27">
-        <v>1</v>
-      </c>
-      <c r="AQ27">
-        <v>1</v>
-      </c>
-      <c r="AR27" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AS27">
-        <v>2</v>
-      </c>
-      <c r="AT27" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AU27">
-        <v>2</v>
-      </c>
-      <c r="AV27">
-        <v>0</v>
-      </c>
-      <c r="AW27">
-        <v>3</v>
-      </c>
-      <c r="AX27" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AY27" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="AZ27">
-        <v>1</v>
-      </c>
-      <c r="BA27">
-        <v>3</v>
-      </c>
-      <c r="BB27">
-        <v>3</v>
-      </c>
-      <c r="BC27">
-        <v>2</v>
-      </c>
-      <c r="BD27">
-        <v>3</v>
-      </c>
-      <c r="BE27">
-        <v>3</v>
-      </c>
-      <c r="BF27">
-        <v>3</v>
-      </c>
-      <c r="BG27">
-        <v>3</v>
-      </c>
-      <c r="BH27">
-        <v>3</v>
-      </c>
-      <c r="BI27">
-        <v>3</v>
-      </c>
-      <c r="BJ27">
-        <v>1</v>
-      </c>
-      <c r="BK27">
-        <v>1</v>
-      </c>
-      <c r="BL27">
-        <v>1</v>
-      </c>
-      <c r="BM27">
-        <v>1</v>
-      </c>
-      <c r="BN27">
-        <v>2</v>
-      </c>
-      <c r="BO27">
-        <v>1</v>
-      </c>
-      <c r="BP27">
-        <v>2</v>
-      </c>
-      <c r="BQ27">
-        <v>1</v>
-      </c>
-      <c r="BR27" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="BS27" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="BT27">
         <v>6</v>
       </c>
-      <c r="BU27">
-        <v>5</v>
-      </c>
-      <c r="BV27">
-        <v>6</v>
-      </c>
-      <c r="BW27">
-        <v>6</v>
-      </c>
-      <c r="BX27">
-        <v>6</v>
-      </c>
-      <c r="BY27">
-        <v>5</v>
-      </c>
-      <c r="BZ27">
-        <v>2</v>
-      </c>
-      <c r="CA27">
-        <v>5</v>
-      </c>
-      <c r="CB27">
-        <v>1</v>
-      </c>
-      <c r="CC27">
-        <v>5</v>
-      </c>
-      <c r="CD27">
-        <v>2</v>
-      </c>
-      <c r="CE27">
-        <v>5</v>
-      </c>
-      <c r="CF27">
-        <v>3</v>
-      </c>
-      <c r="CG27">
-        <v>5</v>
-      </c>
       <c r="CH27">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="CI27">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="CJ27" t="inlineStr">
         <is>
@@ -9041,14 +9041,14 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Spørgeskema 3 måneder efter deltagelse</t>
+          <t>Spørgeskema 2 måneder efter deltagelse</t>
         </is>
       </c>
       <c r="I28" s="2">
+        <v>45372</v>
+      </c>
+      <c r="J28" s="2">
         <v>45402</v>
-      </c>
-      <c r="J28" s="2">
-        <v>45462</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -9062,23 +9062,23 @@
         <v>4264</v>
       </c>
       <c r="N28">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O28">
         <v>4</v>
       </c>
       <c r="P28">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="Q28">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="R28">
         <v>4</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="T28">
@@ -9086,20 +9086,20 @@
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="V28">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="W28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X28">
         <v>0</v>
       </c>
       <c r="Y28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z28">
         <v>0</v>
@@ -9111,7 +9111,12 @@
         <v>1</v>
       </c>
       <c r="AC28">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="AD28" t="inlineStr">
+        <is>
+          <t>Hals og bryst</t>
+        </is>
       </c>
       <c r="AE28">
         <v>0</v>
@@ -9126,19 +9131,19 @@
         <v>0</v>
       </c>
       <c r="AI28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ28">
         <v>0</v>
       </c>
       <c r="AK28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL28">
         <v>3</v>
       </c>
       <c r="AM28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN28">
         <v>0</v>
@@ -9150,40 +9155,40 @@
         <v>1</v>
       </c>
       <c r="AQ28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR28" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AS28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT28" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AU28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AV28">
         <v>0</v>
       </c>
       <c r="AW28">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AX28" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AY28" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="AY28" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
       <c r="AZ28">
         <v>1</v>
       </c>
@@ -9230,7 +9235,7 @@
         <v>2</v>
       </c>
       <c r="BO28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BP28">
         <v>2</v>
@@ -9245,14 +9250,14 @@
       </c>
       <c r="BS28" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="BT28">
         <v>6</v>
       </c>
       <c r="BU28">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BV28">
         <v>6</v>
@@ -9267,13 +9272,13 @@
         <v>5</v>
       </c>
       <c r="BZ28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="CA28">
         <v>5</v>
       </c>
       <c r="CB28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="CC28">
         <v>5</v>
@@ -9282,7 +9287,7 @@
         <v>2</v>
       </c>
       <c r="CE28">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CF28">
         <v>3</v>
@@ -9291,10 +9296,10 @@
         <v>5</v>
       </c>
       <c r="CH28">
-        <v>1518</v>
+        <v>1519</v>
       </c>
       <c r="CI28">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="CJ28" t="inlineStr">
         <is>
@@ -9363,7 +9368,7 @@
     </row>
     <row r="29">
       <c r="A29">
-        <v>212949</v>
+        <v>212335</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -9377,12 +9382,12 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Arb liste 142</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Lup044</t>
+          <t>LUP014</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -9397,14 +9402,14 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Spørgeskema 1 måned efter deltagelse</t>
+          <t>Spørgeskema 3 måneder efter deltagelse</t>
         </is>
       </c>
       <c r="I29" s="2">
-        <v>45312</v>
+        <v>45402</v>
       </c>
       <c r="J29" s="2">
-        <v>45372</v>
+        <v>45462</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -9421,132 +9426,127 @@
         <v>6</v>
       </c>
       <c r="O29">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P29">
         <v>4</v>
       </c>
       <c r="Q29">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R29">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="T29">
+        <v>2</v>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="V29">
+        <v>4</v>
+      </c>
+      <c r="W29">
+        <v>2</v>
+      </c>
+      <c r="X29">
+        <v>0</v>
+      </c>
+      <c r="Y29">
+        <v>2</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+      <c r="AA29">
+        <v>1</v>
+      </c>
+      <c r="AB29">
+        <v>1</v>
+      </c>
+      <c r="AC29">
+        <v>0</v>
+      </c>
+      <c r="AE29">
+        <v>0</v>
+      </c>
+      <c r="AF29">
+        <v>1</v>
+      </c>
+      <c r="AG29">
+        <v>0</v>
+      </c>
+      <c r="AH29">
+        <v>0</v>
+      </c>
+      <c r="AI29">
+        <v>1</v>
+      </c>
+      <c r="AJ29">
+        <v>0</v>
+      </c>
+      <c r="AK29">
+        <v>0</v>
+      </c>
+      <c r="AL29">
+        <v>3</v>
+      </c>
+      <c r="AM29">
+        <v>1</v>
+      </c>
+      <c r="AN29">
+        <v>0</v>
+      </c>
+      <c r="AO29">
+        <v>0</v>
+      </c>
+      <c r="AP29">
+        <v>1</v>
+      </c>
+      <c r="AQ29">
+        <v>0</v>
+      </c>
+      <c r="AR29" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="T29">
-        <v>2</v>
-      </c>
-      <c r="U29" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="V29">
-        <v>4</v>
-      </c>
-      <c r="W29">
-        <v>1</v>
-      </c>
-      <c r="X29">
-        <v>0</v>
-      </c>
-      <c r="Y29">
-        <v>2</v>
-      </c>
-      <c r="Z29">
-        <v>0</v>
-      </c>
-      <c r="AA29">
-        <v>1</v>
-      </c>
-      <c r="AB29">
-        <v>0</v>
-      </c>
-      <c r="AC29">
-        <v>1</v>
-      </c>
-      <c r="AD29" t="inlineStr">
-        <is>
-          <t>Nakke, bryst og skulder region, håndled</t>
-        </is>
-      </c>
-      <c r="AE29">
-        <v>1</v>
-      </c>
-      <c r="AF29">
-        <v>0</v>
-      </c>
-      <c r="AG29">
-        <v>0</v>
-      </c>
-      <c r="AH29">
-        <v>0</v>
-      </c>
-      <c r="AI29">
-        <v>0</v>
-      </c>
-      <c r="AJ29">
-        <v>1</v>
-      </c>
-      <c r="AK29">
-        <v>1</v>
-      </c>
-      <c r="AL29">
-        <v>0</v>
-      </c>
-      <c r="AM29">
-        <v>0</v>
-      </c>
-      <c r="AN29">
-        <v>0</v>
-      </c>
-      <c r="AO29">
-        <v>0</v>
-      </c>
-      <c r="AP29">
-        <v>1</v>
-      </c>
-      <c r="AQ29">
-        <v>1</v>
-      </c>
-      <c r="AR29" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AS29">
         <v>1</v>
       </c>
       <c r="AT29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AU29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AV29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW29">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AX29" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="AY29" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="AZ29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BA29">
         <v>3</v>
@@ -9555,7 +9555,7 @@
         <v>3</v>
       </c>
       <c r="BC29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BD29">
         <v>3</v>
@@ -9576,16 +9576,16 @@
         <v>3</v>
       </c>
       <c r="BJ29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BK29">
         <v>1</v>
       </c>
       <c r="BL29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BM29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BN29">
         <v>2</v>
@@ -9601,65 +9601,65 @@
       </c>
       <c r="BR29" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="BS29" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="BT29">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BU29">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BV29">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BW29">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BX29">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BY29">
         <v>5</v>
       </c>
       <c r="BZ29">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="CA29">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="CB29">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="CC29">
         <v>5</v>
       </c>
       <c r="CD29">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="CE29">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="CF29">
         <v>3</v>
       </c>
       <c r="CG29">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="CH29">
-        <v>1517</v>
+        <v>1518</v>
       </c>
       <c r="CI29">
         <v>5</v>
       </c>
       <c r="CJ29" t="inlineStr">
         <is>
-          <t>lup_044</t>
+          <t>lup_014</t>
         </is>
       </c>
       <c r="CK29">
@@ -9674,52 +9674,52 @@
         </is>
       </c>
       <c r="CN29">
-        <v>-0.3361465692054014</v>
+        <v>-0.01800923352507124</v>
       </c>
       <c r="CO29">
-        <v>-0.05294083148619365</v>
+        <v>0.04745966591604113</v>
       </c>
       <c r="CP29">
-        <v>0.08895753491513772</v>
+        <v>0.06116857509351407</v>
       </c>
       <c r="CQ29">
-        <v>-0.2665194811861738</v>
+        <v>0.0008082664082571031</v>
       </c>
       <c r="CR29">
-        <v>-0.08782116807512756</v>
+        <v>0.09717642096226413</v>
       </c>
       <c r="CS29">
-        <v>0.4464518759829768</v>
+        <v>0.9522707856278587</v>
       </c>
       <c r="CT29">
-        <v>0.07959881460682798</v>
+        <v>0.2235431141649703</v>
       </c>
       <c r="CU29">
-        <v>0.03375915463126739</v>
+        <v>0.5021435494326213</v>
       </c>
       <c r="CV29">
-        <v>216.1347441174957</v>
+        <v>325.3783125221683</v>
       </c>
       <c r="CW29">
-        <v>443.774085453583</v>
+        <v>500.893157180158</v>
       </c>
       <c r="CX29">
-        <v>979.4942402276076</v>
+        <v>961.330111498923</v>
       </c>
       <c r="CY29">
-        <v>167.6700977220063</v>
+        <v>242.6176188504557</v>
       </c>
       <c r="CZ29">
-        <v>373.0330100966503</v>
+        <v>441.3178636353562</v>
       </c>
       <c r="DA29">
-        <v>7688.572093389653</v>
+        <v>10059.79881636455</v>
       </c>
       <c r="DB29">
-        <v>249.5644631316524</v>
+        <v>285.0292095879738</v>
       </c>
       <c r="DC29">
-        <v>149.0511831373644</v>
+        <v>198.5512786569955</v>
       </c>
     </row>
     <row r="30">
@@ -9758,14 +9758,14 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Spørgeskema 2 måneder efter deltagelse</t>
+          <t>Spørgeskema 1 måned efter deltagelse</t>
         </is>
       </c>
       <c r="I30" s="2">
+        <v>45312</v>
+      </c>
+      <c r="J30" s="2">
         <v>45372</v>
-      </c>
-      <c r="J30" s="2">
-        <v>45402</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -9779,10 +9779,10 @@
         <v>4264</v>
       </c>
       <c r="N30">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O30">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P30">
         <v>4</v>
@@ -9795,181 +9795,181 @@
       </c>
       <c r="S30" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="T30">
+        <v>2</v>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="V30">
+        <v>4</v>
+      </c>
+      <c r="W30">
+        <v>1</v>
+      </c>
+      <c r="X30">
+        <v>0</v>
+      </c>
+      <c r="Y30">
+        <v>2</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+      <c r="AA30">
+        <v>1</v>
+      </c>
+      <c r="AB30">
+        <v>0</v>
+      </c>
+      <c r="AC30">
+        <v>1</v>
+      </c>
+      <c r="AD30" t="inlineStr">
+        <is>
+          <t>Nakke, bryst og skulder region, håndled</t>
+        </is>
+      </c>
+      <c r="AE30">
+        <v>1</v>
+      </c>
+      <c r="AF30">
+        <v>0</v>
+      </c>
+      <c r="AG30">
+        <v>0</v>
+      </c>
+      <c r="AH30">
+        <v>0</v>
+      </c>
+      <c r="AI30">
+        <v>0</v>
+      </c>
+      <c r="AJ30">
+        <v>1</v>
+      </c>
+      <c r="AK30">
+        <v>1</v>
+      </c>
+      <c r="AL30">
+        <v>0</v>
+      </c>
+      <c r="AM30">
+        <v>0</v>
+      </c>
+      <c r="AN30">
+        <v>0</v>
+      </c>
+      <c r="AO30">
+        <v>0</v>
+      </c>
+      <c r="AP30">
+        <v>1</v>
+      </c>
+      <c r="AQ30">
+        <v>1</v>
+      </c>
+      <c r="AR30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AS30">
+        <v>1</v>
+      </c>
+      <c r="AT30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AU30">
+        <v>2</v>
+      </c>
+      <c r="AV30">
+        <v>1</v>
+      </c>
+      <c r="AW30">
+        <v>0</v>
+      </c>
+      <c r="AX30" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="T30">
-        <v>2</v>
-      </c>
-      <c r="U30" t="inlineStr">
+      <c r="AY30" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AZ30">
+        <v>3</v>
+      </c>
+      <c r="BA30">
+        <v>3</v>
+      </c>
+      <c r="BB30">
+        <v>3</v>
+      </c>
+      <c r="BC30">
+        <v>3</v>
+      </c>
+      <c r="BD30">
+        <v>3</v>
+      </c>
+      <c r="BE30">
+        <v>3</v>
+      </c>
+      <c r="BF30">
+        <v>3</v>
+      </c>
+      <c r="BG30">
+        <v>3</v>
+      </c>
+      <c r="BH30">
+        <v>3</v>
+      </c>
+      <c r="BI30">
+        <v>3</v>
+      </c>
+      <c r="BJ30">
+        <v>2</v>
+      </c>
+      <c r="BK30">
+        <v>1</v>
+      </c>
+      <c r="BL30">
+        <v>2</v>
+      </c>
+      <c r="BM30">
+        <v>2</v>
+      </c>
+      <c r="BN30">
+        <v>2</v>
+      </c>
+      <c r="BO30">
+        <v>2</v>
+      </c>
+      <c r="BP30">
+        <v>2</v>
+      </c>
+      <c r="BQ30">
+        <v>1</v>
+      </c>
+      <c r="BR30" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="V30">
-        <v>3</v>
-      </c>
-      <c r="W30">
-        <v>1</v>
-      </c>
-      <c r="X30">
-        <v>0</v>
-      </c>
-      <c r="Y30">
-        <v>2</v>
-      </c>
-      <c r="Z30">
-        <v>0</v>
-      </c>
-      <c r="AA30">
-        <v>1</v>
-      </c>
-      <c r="AB30">
-        <v>1</v>
-      </c>
-      <c r="AC30">
-        <v>1</v>
-      </c>
-      <c r="AD30" t="inlineStr">
-        <is>
-          <t>Håndled, brystkassen, nakke, ansigt.</t>
-        </is>
-      </c>
-      <c r="AE30">
-        <v>0</v>
-      </c>
-      <c r="AF30">
-        <v>0</v>
-      </c>
-      <c r="AG30">
-        <v>0</v>
-      </c>
-      <c r="AH30">
-        <v>0</v>
-      </c>
-      <c r="AI30">
-        <v>0</v>
-      </c>
-      <c r="AJ30">
-        <v>1</v>
-      </c>
-      <c r="AK30">
-        <v>1</v>
-      </c>
-      <c r="AL30">
-        <v>1</v>
-      </c>
-      <c r="AM30">
-        <v>0</v>
-      </c>
-      <c r="AN30">
-        <v>0</v>
-      </c>
-      <c r="AO30">
-        <v>0</v>
-      </c>
-      <c r="AP30">
-        <v>1</v>
-      </c>
-      <c r="AQ30">
-        <v>1</v>
-      </c>
-      <c r="AR30" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AS30">
-        <v>1</v>
-      </c>
-      <c r="AT30" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AU30">
-        <v>2</v>
-      </c>
-      <c r="AV30">
-        <v>2</v>
-      </c>
-      <c r="AW30">
-        <v>5</v>
-      </c>
-      <c r="AX30" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="AY30" t="inlineStr">
+      <c r="BS30" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="AZ30">
-        <v>2</v>
-      </c>
-      <c r="BA30">
-        <v>3</v>
-      </c>
-      <c r="BB30">
-        <v>3</v>
-      </c>
-      <c r="BC30">
-        <v>3</v>
-      </c>
-      <c r="BD30">
-        <v>3</v>
-      </c>
-      <c r="BE30">
-        <v>3</v>
-      </c>
-      <c r="BF30">
-        <v>3</v>
-      </c>
-      <c r="BG30">
-        <v>3</v>
-      </c>
-      <c r="BH30">
-        <v>3</v>
-      </c>
-      <c r="BI30">
-        <v>3</v>
-      </c>
-      <c r="BJ30">
-        <v>2</v>
-      </c>
-      <c r="BK30">
-        <v>1</v>
-      </c>
-      <c r="BL30">
-        <v>2</v>
-      </c>
-      <c r="BM30">
-        <v>1</v>
-      </c>
-      <c r="BN30">
-        <v>2</v>
-      </c>
-      <c r="BO30">
-        <v>1</v>
-      </c>
-      <c r="BP30">
-        <v>2</v>
-      </c>
-      <c r="BQ30">
-        <v>1</v>
-      </c>
-      <c r="BR30" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="BS30" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
       <c r="BT30">
         <v>2</v>
       </c>
@@ -9977,10 +9977,10 @@
         <v>5</v>
       </c>
       <c r="BV30">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BW30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BX30">
         <v>3</v>
@@ -9989,22 +9989,22 @@
         <v>5</v>
       </c>
       <c r="BZ30">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="CA30">
         <v>2</v>
       </c>
       <c r="CB30">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CC30">
         <v>5</v>
       </c>
       <c r="CD30">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CE30">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="CF30">
         <v>3</v>
@@ -10013,10 +10013,10 @@
         <v>2</v>
       </c>
       <c r="CH30">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="CI30">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="CJ30" t="inlineStr">
         <is>
@@ -10119,14 +10119,14 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Spørgeskema 3 måneder efter deltagelse</t>
+          <t>Spørgeskema 2 måneder efter deltagelse</t>
         </is>
       </c>
       <c r="I31" s="2">
+        <v>45372</v>
+      </c>
+      <c r="J31" s="2">
         <v>45402</v>
-      </c>
-      <c r="J31" s="2">
-        <v>45462</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -10140,19 +10140,19 @@
         <v>4264</v>
       </c>
       <c r="N31">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O31">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P31">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q31">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R31">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
@@ -10160,34 +10160,40 @@
         </is>
       </c>
       <c r="T31">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="V31">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="W31">
+        <v>1</v>
       </c>
       <c r="X31">
         <v>0</v>
       </c>
+      <c r="Y31">
+        <v>2</v>
+      </c>
       <c r="Z31">
         <v>0</v>
       </c>
       <c r="AA31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC31">
         <v>1</v>
       </c>
       <c r="AD31" t="inlineStr">
         <is>
-          <t>Vedvarende smertefulde knopper (kunne ligne små vabler) i nakke, skuldre, ryg. Samt rødme med varme som forsvinder efter minutter/timer i samme områder + knæ.</t>
+          <t>Håndled, brystkassen, nakke, ansigt.</t>
         </is>
       </c>
       <c r="AE31">
@@ -10200,7 +10206,7 @@
         <v>0</v>
       </c>
       <c r="AH31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI31">
         <v>0</v>
@@ -10209,7 +10215,7 @@
         <v>1</v>
       </c>
       <c r="AK31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL31">
         <v>1</v>
@@ -10223,6 +10229,9 @@
       <c r="AO31">
         <v>0</v>
       </c>
+      <c r="AP31">
+        <v>1</v>
+      </c>
       <c r="AQ31">
         <v>1</v>
       </c>
@@ -10246,129 +10255,129 @@
         <v>2</v>
       </c>
       <c r="AW31">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AX31" t="inlineStr">
         <is>
-          <t>3	4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="AY31" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AZ31">
+        <v>2</v>
+      </c>
+      <c r="BA31">
+        <v>3</v>
+      </c>
+      <c r="BB31">
+        <v>3</v>
+      </c>
+      <c r="BC31">
+        <v>3</v>
+      </c>
+      <c r="BD31">
+        <v>3</v>
+      </c>
+      <c r="BE31">
+        <v>3</v>
+      </c>
+      <c r="BF31">
+        <v>3</v>
+      </c>
+      <c r="BG31">
+        <v>3</v>
+      </c>
+      <c r="BH31">
+        <v>3</v>
+      </c>
+      <c r="BI31">
+        <v>3</v>
+      </c>
+      <c r="BJ31">
+        <v>2</v>
+      </c>
+      <c r="BK31">
+        <v>1</v>
+      </c>
+      <c r="BL31">
+        <v>2</v>
+      </c>
+      <c r="BM31">
+        <v>1</v>
+      </c>
+      <c r="BN31">
+        <v>2</v>
+      </c>
+      <c r="BO31">
+        <v>1</v>
+      </c>
+      <c r="BP31">
+        <v>2</v>
+      </c>
+      <c r="BQ31">
+        <v>1</v>
+      </c>
+      <c r="BR31" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="BS31" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AZ31">
-        <v>1</v>
-      </c>
-      <c r="BA31">
-        <v>2</v>
-      </c>
-      <c r="BB31">
-        <v>3</v>
-      </c>
-      <c r="BC31">
-        <v>2</v>
-      </c>
-      <c r="BD31">
-        <v>3</v>
-      </c>
-      <c r="BE31">
-        <v>3</v>
-      </c>
-      <c r="BF31">
-        <v>2</v>
-      </c>
-      <c r="BG31">
-        <v>3</v>
-      </c>
-      <c r="BH31">
-        <v>3</v>
-      </c>
-      <c r="BI31">
-        <v>3</v>
-      </c>
-      <c r="BJ31">
-        <v>1</v>
-      </c>
-      <c r="BK31">
-        <v>1</v>
-      </c>
-      <c r="BL31">
-        <v>1</v>
-      </c>
-      <c r="BM31">
-        <v>1</v>
-      </c>
-      <c r="BN31">
-        <v>1</v>
-      </c>
-      <c r="BO31">
-        <v>1</v>
-      </c>
-      <c r="BP31">
-        <v>1</v>
-      </c>
-      <c r="BQ31">
-        <v>1</v>
-      </c>
-      <c r="BR31" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="BS31" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
       <c r="BT31">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BU31">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BV31">
         <v>6</v>
       </c>
       <c r="BW31">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BX31">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BY31">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BZ31">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="CA31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="CB31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CC31">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CD31">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="CE31">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CF31">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="CG31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="CH31">
-        <v>1518</v>
+        <v>1519</v>
       </c>
       <c r="CI31">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="CJ31" t="inlineStr">
         <is>
@@ -10437,7 +10446,7 @@
     </row>
     <row r="32">
       <c r="A32">
-        <v>212964</v>
+        <v>212949</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -10451,12 +10460,12 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Arb liste 145</t>
+          <t>Arb liste 142</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Lup045</t>
+          <t>Lup044</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -10471,14 +10480,14 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Spørgeskema 1 måned efter deltagelse</t>
+          <t>Spørgeskema 3 måneder efter deltagelse</t>
         </is>
       </c>
       <c r="I32" s="2">
-        <v>45356</v>
+        <v>45402</v>
       </c>
       <c r="J32" s="2">
-        <v>45416</v>
+        <v>45462</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -10492,243 +10501,239 @@
         <v>4264</v>
       </c>
       <c r="N32">
+        <v>6</v>
+      </c>
+      <c r="O32">
+        <v>2</v>
+      </c>
+      <c r="P32">
+        <v>5</v>
+      </c>
+      <c r="Q32">
+        <v>5</v>
+      </c>
+      <c r="R32">
+        <v>6</v>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="T32">
+        <v>6</v>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="V32">
+        <v>5</v>
+      </c>
+      <c r="X32">
+        <v>0</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+      <c r="AA32">
+        <v>2</v>
+      </c>
+      <c r="AB32">
+        <v>0</v>
+      </c>
+      <c r="AC32">
+        <v>1</v>
+      </c>
+      <c r="AD32" t="inlineStr">
+        <is>
+          <t>Vedvarende smertefulde knopper (kunne ligne små vabler) i nakke, skuldre, ryg. Samt rødme med varme som forsvinder efter minutter/timer i samme områder + knæ.</t>
+        </is>
+      </c>
+      <c r="AE32">
+        <v>0</v>
+      </c>
+      <c r="AF32">
+        <v>0</v>
+      </c>
+      <c r="AG32">
+        <v>0</v>
+      </c>
+      <c r="AH32">
+        <v>1</v>
+      </c>
+      <c r="AI32">
+        <v>0</v>
+      </c>
+      <c r="AJ32">
+        <v>1</v>
+      </c>
+      <c r="AK32">
+        <v>0</v>
+      </c>
+      <c r="AL32">
+        <v>1</v>
+      </c>
+      <c r="AM32">
+        <v>0</v>
+      </c>
+      <c r="AN32">
+        <v>0</v>
+      </c>
+      <c r="AO32">
+        <v>0</v>
+      </c>
+      <c r="AQ32">
+        <v>1</v>
+      </c>
+      <c r="AR32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AS32">
+        <v>1</v>
+      </c>
+      <c r="AT32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AU32">
+        <v>2</v>
+      </c>
+      <c r="AV32">
+        <v>2</v>
+      </c>
+      <c r="AW32">
         <v>7</v>
       </c>
-      <c r="O32">
-        <v>2</v>
-      </c>
-      <c r="P32">
-        <v>7</v>
-      </c>
-      <c r="Q32">
-        <v>4</v>
-      </c>
-      <c r="R32">
-        <v>7</v>
-      </c>
-      <c r="S32" t="inlineStr">
+      <c r="AX32" t="inlineStr">
+        <is>
+          <t>3	4</t>
+        </is>
+      </c>
+      <c r="AY32" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="T32">
-        <v>7</v>
-      </c>
-      <c r="U32" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="V32">
-        <v>7</v>
-      </c>
-      <c r="W32">
-        <v>2</v>
-      </c>
-      <c r="X32">
-        <v>0</v>
-      </c>
-      <c r="Y32">
-        <v>2</v>
-      </c>
-      <c r="Z32">
-        <v>0</v>
-      </c>
-      <c r="AA32">
-        <v>2</v>
-      </c>
-      <c r="AB32">
-        <v>0</v>
-      </c>
-      <c r="AC32">
-        <v>0</v>
-      </c>
-      <c r="AE32">
-        <v>0</v>
-      </c>
-      <c r="AF32">
-        <v>2</v>
-      </c>
-      <c r="AG32">
-        <v>0</v>
-      </c>
-      <c r="AH32">
-        <v>0</v>
-      </c>
-      <c r="AI32">
-        <v>1</v>
-      </c>
-      <c r="AJ32">
-        <v>0</v>
-      </c>
-      <c r="AK32">
-        <v>1</v>
-      </c>
-      <c r="AL32">
-        <v>1</v>
-      </c>
-      <c r="AM32">
-        <v>2</v>
-      </c>
-      <c r="AN32">
-        <v>0</v>
-      </c>
-      <c r="AO32">
-        <v>0</v>
-      </c>
-      <c r="AP32">
-        <v>3</v>
-      </c>
-      <c r="AQ32">
-        <v>3</v>
-      </c>
-      <c r="AR32" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AS32">
-        <v>1</v>
-      </c>
-      <c r="AT32" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AU32">
-        <v>2</v>
-      </c>
-      <c r="AV32">
-        <v>2</v>
-      </c>
-      <c r="AW32">
-        <v>5</v>
-      </c>
-      <c r="AX32" t="inlineStr">
+      <c r="AZ32">
+        <v>1</v>
+      </c>
+      <c r="BA32">
+        <v>2</v>
+      </c>
+      <c r="BB32">
+        <v>3</v>
+      </c>
+      <c r="BC32">
+        <v>2</v>
+      </c>
+      <c r="BD32">
+        <v>3</v>
+      </c>
+      <c r="BE32">
+        <v>3</v>
+      </c>
+      <c r="BF32">
+        <v>2</v>
+      </c>
+      <c r="BG32">
+        <v>3</v>
+      </c>
+      <c r="BH32">
+        <v>3</v>
+      </c>
+      <c r="BI32">
+        <v>3</v>
+      </c>
+      <c r="BJ32">
+        <v>1</v>
+      </c>
+      <c r="BK32">
+        <v>1</v>
+      </c>
+      <c r="BL32">
+        <v>1</v>
+      </c>
+      <c r="BM32">
+        <v>1</v>
+      </c>
+      <c r="BN32">
+        <v>1</v>
+      </c>
+      <c r="BO32">
+        <v>1</v>
+      </c>
+      <c r="BP32">
+        <v>1</v>
+      </c>
+      <c r="BQ32">
+        <v>1</v>
+      </c>
+      <c r="BR32" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="AY32" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="AZ32">
-        <v>2</v>
-      </c>
-      <c r="BA32">
-        <v>2</v>
-      </c>
-      <c r="BB32">
-        <v>2</v>
-      </c>
-      <c r="BC32">
-        <v>3</v>
-      </c>
-      <c r="BD32">
-        <v>3</v>
-      </c>
-      <c r="BE32">
-        <v>3</v>
-      </c>
-      <c r="BF32">
-        <v>3</v>
-      </c>
-      <c r="BG32">
-        <v>3</v>
-      </c>
-      <c r="BH32">
-        <v>3</v>
-      </c>
-      <c r="BI32">
-        <v>2</v>
-      </c>
-      <c r="BJ32">
-        <v>1</v>
-      </c>
-      <c r="BK32">
-        <v>1</v>
-      </c>
-      <c r="BL32">
-        <v>1</v>
-      </c>
-      <c r="BM32">
-        <v>1</v>
-      </c>
-      <c r="BN32">
-        <v>1</v>
-      </c>
-      <c r="BO32">
-        <v>1</v>
-      </c>
-      <c r="BP32">
-        <v>2</v>
-      </c>
-      <c r="BQ32">
-        <v>2</v>
-      </c>
-      <c r="BR32" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
       <c r="BS32" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="BT32">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BU32">
         <v>4</v>
       </c>
       <c r="BV32">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BW32">
         <v>4</v>
       </c>
       <c r="BX32">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BY32">
         <v>4</v>
       </c>
       <c r="BZ32">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="CA32">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="CB32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CC32">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CD32">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="CE32">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="CF32">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CG32">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="CH32">
-        <v>1517</v>
+        <v>1518</v>
       </c>
       <c r="CI32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="CJ32" t="inlineStr">
         <is>
-          <t>lup_045</t>
+          <t>lup_044</t>
         </is>
       </c>
       <c r="CK32">
@@ -10739,56 +10744,56 @@
       </c>
       <c r="CM32" t="inlineStr">
         <is>
-          <t>Pingvin</t>
+          <t>Søløve</t>
         </is>
       </c>
       <c r="CN32">
-        <v>-0.1481850070805685</v>
+        <v>-0.3361465692054014</v>
       </c>
       <c r="CO32">
-        <v>0.02958622518541608</v>
+        <v>-0.05294083148619365</v>
       </c>
       <c r="CP32">
-        <v>0.2630334585940345</v>
+        <v>0.08895753491513772</v>
       </c>
       <c r="CQ32">
-        <v>0.01320646371719468</v>
+        <v>-0.2665194811861738</v>
       </c>
       <c r="CR32">
-        <v>0.04961975139148696</v>
+        <v>-0.08782116807512756</v>
       </c>
       <c r="CS32">
-        <v>0.416031360052035</v>
+        <v>0.4464518759829768</v>
       </c>
       <c r="CT32">
-        <v>0.08943858071956348</v>
+        <v>0.07959881460682798</v>
       </c>
       <c r="CU32">
-        <v>-0.04579974589274657</v>
+        <v>0.03375915463126739</v>
       </c>
       <c r="CV32">
-        <v>272.4015649228922</v>
+        <v>216.1347441174957</v>
       </c>
       <c r="CW32">
-        <v>473.7165739611416</v>
+        <v>443.774085453583</v>
       </c>
       <c r="CX32">
-        <v>1138.16221450414</v>
+        <v>979.4942402276076</v>
       </c>
       <c r="CY32">
-        <v>222.1139541988721</v>
+        <v>167.6700977220063</v>
       </c>
       <c r="CZ32">
-        <v>421.8591331088921</v>
+        <v>373.0330100966503</v>
       </c>
       <c r="DA32">
-        <v>7683.989687643189</v>
+        <v>7688.572093389653</v>
       </c>
       <c r="DB32">
-        <v>256.1881395403873</v>
+        <v>249.5644631316524</v>
       </c>
       <c r="DC32">
-        <v>137.9422515630777</v>
+        <v>149.0511831373644</v>
       </c>
     </row>
     <row r="33">
@@ -10827,14 +10832,14 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Spørgeskema 2 måneder efter deltagelse</t>
+          <t>Spørgeskema 1 måned efter deltagelse</t>
         </is>
       </c>
       <c r="I33" s="2">
+        <v>45356</v>
+      </c>
+      <c r="J33" s="2">
         <v>45416</v>
-      </c>
-      <c r="J33" s="2">
-        <v>45446</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -10864,7 +10869,7 @@
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="T33">
@@ -10879,19 +10884,19 @@
         <v>7</v>
       </c>
       <c r="W33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X33">
         <v>0</v>
       </c>
       <c r="Y33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Z33">
         <v>0</v>
       </c>
       <c r="AA33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB33">
         <v>0</v>
@@ -10900,10 +10905,10 @@
         <v>0</v>
       </c>
       <c r="AE33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG33">
         <v>0</v>
@@ -10911,14 +10916,17 @@
       <c r="AH33">
         <v>0</v>
       </c>
+      <c r="AI33">
+        <v>1</v>
+      </c>
       <c r="AJ33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AM33">
         <v>2</v>
@@ -10937,105 +10945,105 @@
       </c>
       <c r="AR33" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AS33">
+        <v>1</v>
+      </c>
+      <c r="AT33" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AU33">
+        <v>2</v>
+      </c>
+      <c r="AV33">
+        <v>2</v>
+      </c>
+      <c r="AW33">
+        <v>5</v>
+      </c>
+      <c r="AX33" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AY33" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AZ33">
+        <v>2</v>
+      </c>
+      <c r="BA33">
+        <v>2</v>
+      </c>
+      <c r="BB33">
+        <v>2</v>
+      </c>
+      <c r="BC33">
+        <v>3</v>
+      </c>
+      <c r="BD33">
+        <v>3</v>
+      </c>
+      <c r="BE33">
+        <v>3</v>
+      </c>
+      <c r="BF33">
+        <v>3</v>
+      </c>
+      <c r="BG33">
+        <v>3</v>
+      </c>
+      <c r="BH33">
+        <v>3</v>
+      </c>
+      <c r="BI33">
+        <v>2</v>
+      </c>
+      <c r="BJ33">
+        <v>1</v>
+      </c>
+      <c r="BK33">
+        <v>1</v>
+      </c>
+      <c r="BL33">
+        <v>1</v>
+      </c>
+      <c r="BM33">
+        <v>1</v>
+      </c>
+      <c r="BN33">
+        <v>1</v>
+      </c>
+      <c r="BO33">
+        <v>1</v>
+      </c>
+      <c r="BP33">
+        <v>2</v>
+      </c>
+      <c r="BQ33">
+        <v>2</v>
+      </c>
+      <c r="BR33" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="BS33" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AS33">
-        <v>1</v>
-      </c>
-      <c r="AT33" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AU33">
-        <v>3</v>
-      </c>
-      <c r="AV33">
-        <v>2</v>
-      </c>
-      <c r="AW33">
-        <v>6</v>
-      </c>
-      <c r="AX33" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="AY33" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="AZ33">
-        <v>2</v>
-      </c>
-      <c r="BA33">
-        <v>3</v>
-      </c>
-      <c r="BB33">
-        <v>2</v>
-      </c>
-      <c r="BC33">
-        <v>3</v>
-      </c>
-      <c r="BD33">
-        <v>3</v>
-      </c>
-      <c r="BE33">
-        <v>3</v>
-      </c>
-      <c r="BF33">
-        <v>3</v>
-      </c>
-      <c r="BG33">
-        <v>3</v>
-      </c>
-      <c r="BH33">
-        <v>3</v>
-      </c>
-      <c r="BI33">
-        <v>2</v>
-      </c>
-      <c r="BJ33">
-        <v>1</v>
-      </c>
-      <c r="BK33">
-        <v>1</v>
-      </c>
-      <c r="BL33">
-        <v>1</v>
-      </c>
-      <c r="BM33">
-        <v>1</v>
-      </c>
-      <c r="BN33">
-        <v>1</v>
-      </c>
-      <c r="BO33">
-        <v>1</v>
-      </c>
-      <c r="BP33">
-        <v>1</v>
-      </c>
-      <c r="BQ33">
-        <v>3</v>
-      </c>
-      <c r="BR33" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="BS33" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
       <c r="BT33">
         <v>5</v>
       </c>
       <c r="BU33">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BV33">
         <v>5</v>
@@ -11047,10 +11055,10 @@
         <v>5</v>
       </c>
       <c r="BY33">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BZ33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CA33">
         <v>4</v>
@@ -11059,7 +11067,7 @@
         <v>1</v>
       </c>
       <c r="CC33">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="CD33">
         <v>2</v>
@@ -11074,10 +11082,10 @@
         <v>4</v>
       </c>
       <c r="CH33">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="CI33">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="CJ33" t="inlineStr">
         <is>
@@ -11180,14 +11188,14 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Spørgeskema 3 måneder efter deltagelse</t>
+          <t>Spørgeskema 2 måneder efter deltagelse</t>
         </is>
       </c>
       <c r="I34" s="2">
+        <v>45416</v>
+      </c>
+      <c r="J34" s="2">
         <v>45446</v>
-      </c>
-      <c r="J34" s="2">
-        <v>45506</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -11232,7 +11240,7 @@
         <v>7</v>
       </c>
       <c r="W34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X34">
         <v>0</v>
@@ -11244,7 +11252,7 @@
         <v>0</v>
       </c>
       <c r="AA34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB34">
         <v>0</v>
@@ -11253,10 +11261,10 @@
         <v>0</v>
       </c>
       <c r="AE34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG34">
         <v>0</v>
@@ -11264,20 +11272,17 @@
       <c r="AH34">
         <v>0</v>
       </c>
-      <c r="AI34">
-        <v>2</v>
-      </c>
       <c r="AJ34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AM34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN34">
         <v>0</v>
@@ -11286,29 +11291,29 @@
         <v>0</v>
       </c>
       <c r="AP34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AQ34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AR34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AS34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AT34" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AU34">
         <v>3</v>
       </c>
       <c r="AV34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW34">
         <v>6</v>
@@ -11327,7 +11332,7 @@
         <v>2</v>
       </c>
       <c r="BA34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BB34">
         <v>2</v>
@@ -11339,7 +11344,7 @@
         <v>3</v>
       </c>
       <c r="BE34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BF34">
         <v>3</v>
@@ -11354,7 +11359,7 @@
         <v>2</v>
       </c>
       <c r="BJ34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BK34">
         <v>1</v>
@@ -11366,59 +11371,59 @@
         <v>1</v>
       </c>
       <c r="BN34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BO34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BP34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BQ34">
         <v>3</v>
       </c>
       <c r="BR34" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="BS34" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="BT34">
         <v>5</v>
       </c>
       <c r="BU34">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BV34">
         <v>5</v>
       </c>
       <c r="BW34">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BX34">
         <v>5</v>
       </c>
       <c r="BY34">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BZ34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CA34">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CB34">
         <v>1</v>
       </c>
       <c r="CC34">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CD34">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="CE34">
         <v>4</v>
@@ -11430,10 +11435,10 @@
         <v>4</v>
       </c>
       <c r="CH34">
-        <v>1518</v>
+        <v>1519</v>
       </c>
       <c r="CI34">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="CJ34" t="inlineStr">
         <is>
@@ -11502,7 +11507,7 @@
     </row>
     <row r="35">
       <c r="A35">
-        <v>212982</v>
+        <v>212964</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -11516,12 +11521,12 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>arb liste 138</t>
+          <t>Arb liste 145</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Lup047</t>
+          <t>Lup045</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -11536,14 +11541,14 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Spørgeskema 1 måned efter deltagelse</t>
+          <t>Spørgeskema 3 måneder efter deltagelse</t>
         </is>
       </c>
       <c r="I35" s="2">
-        <v>45385</v>
+        <v>45446</v>
       </c>
       <c r="J35" s="2">
-        <v>45445</v>
+        <v>45506</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -11556,71 +11561,427 @@
       <c r="M35">
         <v>4264</v>
       </c>
+      <c r="N35">
+        <v>7</v>
+      </c>
+      <c r="O35">
+        <v>2</v>
+      </c>
+      <c r="P35">
+        <v>7</v>
+      </c>
+      <c r="Q35">
+        <v>4</v>
+      </c>
+      <c r="R35">
+        <v>7</v>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="T35">
+        <v>7</v>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="V35">
+        <v>7</v>
+      </c>
+      <c r="W35">
+        <v>2</v>
+      </c>
+      <c r="X35">
+        <v>0</v>
+      </c>
+      <c r="Y35">
+        <v>3</v>
+      </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+      <c r="AA35">
+        <v>1</v>
+      </c>
+      <c r="AB35">
+        <v>0</v>
+      </c>
+      <c r="AC35">
+        <v>0</v>
+      </c>
+      <c r="AE35">
+        <v>0</v>
+      </c>
+      <c r="AF35">
+        <v>2</v>
+      </c>
+      <c r="AG35">
+        <v>0</v>
+      </c>
+      <c r="AH35">
+        <v>0</v>
+      </c>
+      <c r="AI35">
+        <v>2</v>
+      </c>
+      <c r="AJ35">
+        <v>1</v>
+      </c>
+      <c r="AK35">
+        <v>1</v>
+      </c>
+      <c r="AL35">
+        <v>2</v>
+      </c>
+      <c r="AM35">
+        <v>1</v>
+      </c>
+      <c r="AN35">
+        <v>0</v>
+      </c>
+      <c r="AO35">
+        <v>0</v>
+      </c>
+      <c r="AP35">
+        <v>2</v>
+      </c>
+      <c r="AQ35">
+        <v>2</v>
+      </c>
+      <c r="AR35" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AS35">
+        <v>2</v>
+      </c>
+      <c r="AT35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AU35">
+        <v>3</v>
+      </c>
+      <c r="AV35">
+        <v>1</v>
+      </c>
+      <c r="AW35">
+        <v>6</v>
+      </c>
+      <c r="AX35" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AY35" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AZ35">
+        <v>2</v>
+      </c>
+      <c r="BA35">
+        <v>2</v>
+      </c>
+      <c r="BB35">
+        <v>2</v>
+      </c>
+      <c r="BC35">
+        <v>3</v>
+      </c>
+      <c r="BD35">
+        <v>3</v>
+      </c>
+      <c r="BE35">
+        <v>2</v>
+      </c>
+      <c r="BF35">
+        <v>3</v>
+      </c>
+      <c r="BG35">
+        <v>3</v>
+      </c>
+      <c r="BH35">
+        <v>3</v>
+      </c>
+      <c r="BI35">
+        <v>2</v>
+      </c>
+      <c r="BJ35">
+        <v>2</v>
+      </c>
+      <c r="BK35">
+        <v>1</v>
+      </c>
+      <c r="BL35">
+        <v>1</v>
+      </c>
+      <c r="BM35">
+        <v>1</v>
+      </c>
+      <c r="BN35">
+        <v>2</v>
+      </c>
+      <c r="BO35">
+        <v>2</v>
+      </c>
+      <c r="BP35">
+        <v>2</v>
+      </c>
+      <c r="BQ35">
+        <v>3</v>
+      </c>
+      <c r="BR35" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="BS35" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="BT35">
+        <v>5</v>
+      </c>
+      <c r="BU35">
+        <v>6</v>
+      </c>
+      <c r="BV35">
+        <v>5</v>
+      </c>
+      <c r="BW35">
+        <v>5</v>
+      </c>
+      <c r="BX35">
+        <v>5</v>
+      </c>
+      <c r="BY35">
+        <v>5</v>
+      </c>
+      <c r="BZ35">
+        <v>2</v>
+      </c>
+      <c r="CA35">
+        <v>3</v>
+      </c>
+      <c r="CB35">
+        <v>1</v>
+      </c>
+      <c r="CC35">
+        <v>3</v>
+      </c>
+      <c r="CD35">
+        <v>4</v>
+      </c>
+      <c r="CE35">
+        <v>4</v>
+      </c>
+      <c r="CF35">
+        <v>3</v>
+      </c>
+      <c r="CG35">
+        <v>4</v>
+      </c>
       <c r="CH35">
+        <v>1518</v>
+      </c>
+      <c r="CI35">
+        <v>2</v>
+      </c>
+      <c r="CJ35" t="inlineStr">
+        <is>
+          <t>lup_045</t>
+        </is>
+      </c>
+      <c r="CK35">
+        <v>1</v>
+      </c>
+      <c r="CL35">
+        <v>0</v>
+      </c>
+      <c r="CM35" t="inlineStr">
+        <is>
+          <t>Pingvin</t>
+        </is>
+      </c>
+      <c r="CN35">
+        <v>-0.1481850070805685</v>
+      </c>
+      <c r="CO35">
+        <v>0.02958622518541608</v>
+      </c>
+      <c r="CP35">
+        <v>0.2630334585940345</v>
+      </c>
+      <c r="CQ35">
+        <v>0.01320646371719468</v>
+      </c>
+      <c r="CR35">
+        <v>0.04961975139148696</v>
+      </c>
+      <c r="CS35">
+        <v>0.416031360052035</v>
+      </c>
+      <c r="CT35">
+        <v>0.08943858071956348</v>
+      </c>
+      <c r="CU35">
+        <v>-0.04579974589274657</v>
+      </c>
+      <c r="CV35">
+        <v>272.4015649228922</v>
+      </c>
+      <c r="CW35">
+        <v>473.7165739611416</v>
+      </c>
+      <c r="CX35">
+        <v>1138.16221450414</v>
+      </c>
+      <c r="CY35">
+        <v>222.1139541988721</v>
+      </c>
+      <c r="CZ35">
+        <v>421.8591331088921</v>
+      </c>
+      <c r="DA35">
+        <v>7683.989687643189</v>
+      </c>
+      <c r="DB35">
+        <v>256.1881395403873</v>
+      </c>
+      <c r="DC35">
+        <v>137.9422515630777</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>212982</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>LUPEX</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Center for Aktiv Sundhed</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>arb liste 138</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Lup047</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Spørgeskemaer efter deltagelse</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Spørgeskema 1 måned efter deltagelse</t>
+        </is>
+      </c>
+      <c r="I36" s="2">
+        <v>45385</v>
+      </c>
+      <c r="J36" s="2">
+        <v>45445</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>_post_visit_spørgeskemaer</t>
+        </is>
+      </c>
+      <c r="L36">
+        <v>12</v>
+      </c>
+      <c r="M36">
+        <v>4264</v>
+      </c>
+      <c r="CH36">
         <v>1517</v>
       </c>
-      <c r="CJ35" t="inlineStr">
+      <c r="CJ36" t="inlineStr">
         <is>
           <t>lup_047</t>
         </is>
       </c>
-      <c r="CK35">
-        <v>1</v>
-      </c>
-      <c r="CL35">
-        <v>0</v>
-      </c>
-      <c r="CM35" t="inlineStr">
+      <c r="CK36">
+        <v>1</v>
+      </c>
+      <c r="CL36">
+        <v>0</v>
+      </c>
+      <c r="CM36" t="inlineStr">
         <is>
           <t>Pingvin</t>
         </is>
       </c>
-      <c r="CN35">
+      <c r="CN36">
         <v>10.06104466158541</v>
       </c>
-      <c r="CO35">
+      <c r="CO36">
         <v>2.284345279145299</v>
       </c>
-      <c r="CP35">
+      <c r="CP36">
         <v>0.9548342187941065</v>
       </c>
-      <c r="CQ35">
+      <c r="CQ36">
         <v>16.87303029183049</v>
       </c>
-      <c r="CR35">
+      <c r="CR36">
         <v>3.599222183314014</v>
       </c>
-      <c r="CS35">
+      <c r="CS36">
         <v>0.428913728335968</v>
       </c>
-      <c r="CT35">
+      <c r="CT36">
         <v>0.2164485128150657</v>
       </c>
-      <c r="CU35">
+      <c r="CU36">
         <v>0.3759863711158326</v>
       </c>
-      <c r="CV35">
+      <c r="CV36">
         <v>3319.716222593072</v>
       </c>
-      <c r="CW35">
+      <c r="CW36">
         <v>1479.252625467673</v>
       </c>
-      <c r="CX35">
+      <c r="CX36">
         <v>1765.34732663192</v>
       </c>
-      <c r="CY35">
+      <c r="CY36">
         <v>2085.741439636782</v>
       </c>
-      <c r="CZ35">
+      <c r="CZ36">
         <v>1167.550047948987</v>
       </c>
-      <c r="DA35">
+      <c r="DA36">
         <v>6821.117201293558</v>
       </c>
-      <c r="DB35">
+      <c r="DB36">
         <v>268.9912134567161</v>
       </c>
-      <c r="DC35">
+      <c r="DC36">
         <v>176.8292907340586</v>
       </c>
     </row>
